--- a/docs/analysis-log.xlsx
+++ b/docs/analysis-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/github/github.com/kaggle-lead/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0584A24A-BF56-C640-87DE-EEB8593AF6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204371A6-E79F-2A47-B7A1-44436BF1F985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{A36949F6-EE38-D645-92EB-FADEA0680A40}"/>
+    <workbookView xWindow="-51200" yWindow="14160" windowWidth="51200" windowHeight="13680" xr2:uid="{A36949F6-EE38-D645-92EB-FADEA0680A40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,137 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+  <si>
+    <t>Kaggle Score</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Stratified</t>
+  </si>
+  <si>
+    <t>xgb</t>
+  </si>
+  <si>
+    <t>Oversample</t>
+  </si>
+  <si>
+    <t>Undersample</t>
+  </si>
+  <si>
+    <t>PCA "Temp"</t>
+  </si>
+  <si>
+    <t>Target Encode</t>
+  </si>
+  <si>
+    <t>Encode Factors</t>
+  </si>
+  <si>
+    <t>Learner</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>classif.fbeta</t>
+  </si>
+  <si>
+    <t>auc_train</t>
+  </si>
+  <si>
+    <t>auc_test</t>
+  </si>
+  <si>
+    <t>classif.ppv</t>
+  </si>
+  <si>
+    <t>classif.fpr</t>
+  </si>
+  <si>
+    <t>Train Scores</t>
+  </si>
+  <si>
+    <t>Test Scores</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Better prep the test set for the lag variables… eliminate the Nas where possible</t>
+  </si>
+  <si>
+    <t>Submit LightGBM preds</t>
+  </si>
+  <si>
+    <t>Functionalize generate-test-results</t>
+  </si>
+  <si>
+    <t>Explore features further</t>
+  </si>
+  <si>
+    <t>Shiny dashboard to explore the data &amp; features</t>
+  </si>
+  <si>
+    <t>model cards</t>
+  </si>
+  <si>
+    <t>Data Prep</t>
+  </si>
+  <si>
+    <t>Cloud Coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 is missing… </t>
+  </si>
+  <si>
+    <t>should this be a factor var?</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>lightgbm</t>
+  </si>
+  <si>
+    <t>rf without building_id</t>
+  </si>
+  <si>
+    <t>rf with building_id as numeric</t>
+  </si>
+  <si>
+    <t>Factors</t>
+  </si>
+  <si>
+    <t>building, site, use</t>
+  </si>
+  <si>
+    <t>Numerics</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +509,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF770594-6719-D846-9F4C-15E940378FC2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" customWidth="1"/>
+    <col min="17" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <v>0.85302</v>
+      </c>
+      <c r="O3">
+        <v>0.51014879999999996</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>0.87608229999999998</v>
+      </c>
+      <c r="R3">
+        <v>0.52890360000000003</v>
+      </c>
+      <c r="S3">
+        <v>6.0911198000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>0.91669</v>
+      </c>
+      <c r="O4">
+        <v>0.85613070000000002</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>0.99419860000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.98567979999999999</v>
+      </c>
+      <c r="S4">
+        <v>1.5066689999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5">
+        <v>0.51502000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>